--- a/data/trans_orig/P14B29-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B29-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F38508D-9F4B-4009-AFAF-65CDC9DF1931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{243E3904-4805-42C4-8C23-B9F8BBF3F8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9FA29D9C-6372-4020-8C5B-D624B7EC46D5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3FEF6B2-C696-4DDF-A1A9-521D9E52E6F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="321">
   <si>
     <t>Población cuya osteoporosis le limita en 2012 (Tasa respuesta: 2,03%)</t>
   </si>
@@ -133,13 +133,13 @@
     <t>90,15%</t>
   </si>
   <si>
-    <t>56,13%</t>
+    <t>56,67%</t>
   </si>
   <si>
     <t>82,13%</t>
   </si>
   <si>
-    <t>51,44%</t>
+    <t>45,58%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -148,13 +148,13 @@
     <t>9,85%</t>
   </si>
   <si>
-    <t>43,87%</t>
+    <t>43,33%</t>
   </si>
   <si>
     <t>17,87%</t>
   </si>
   <si>
-    <t>48,56%</t>
+    <t>54,42%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -163,19 +163,19 @@
     <t>78,8%</t>
   </si>
   <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
   </si>
   <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -202,37 +202,37 @@
     <t>87,03%</t>
   </si>
   <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>87,47%</t>
   </si>
   <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -277,49 +277,49 @@
     <t>32,26%</t>
   </si>
   <si>
-    <t>80,64%</t>
+    <t>80,31%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>19,69%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -367,37 +367,37 @@
     <t>92,8%</t>
   </si>
   <si>
-    <t>71,54%</t>
+    <t>71,09%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>65,16%</t>
+    <t>67,2%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>28,46%</t>
+    <t>28,91%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>34,84%</t>
+    <t>32,8%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>21,7%</t>
+    <t>29,2%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>78,3%</t>
+    <t>70,8%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -406,19 +406,19 @@
     <t>81,42%</t>
   </si>
   <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -427,19 +427,19 @@
     <t>18,58%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
   </si>
   <si>
     <t>47,67%</t>
@@ -457,7 +457,7 @@
     <t>76,52%</t>
   </si>
   <si>
-    <t>37,79%</t>
+    <t>38,08%</t>
   </si>
   <si>
     <t>32,73%</t>
@@ -469,145 +469,145 @@
     <t>23,48%</t>
   </si>
   <si>
-    <t>62,21%</t>
+    <t>61,92%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>79,9%</t>
+    <t>79,92%</t>
   </si>
   <si>
     <t>57,81%</t>
   </si>
   <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
   </si>
   <si>
     <t>54,81%</t>
   </si>
   <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>64,19%</t>
   </si>
   <si>
-    <t>20,1%</t>
+    <t>20,08%</t>
   </si>
   <si>
     <t>42,19%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
   </si>
   <si>
     <t>45,19%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>37,78%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
   <si>
     <t>40,35%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
   </si>
   <si>
     <t>62,22%</t>
   </si>
   <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>59,65%</t>
   </si>
   <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
   </si>
   <si>
     <t>Población cuya osteoporosis le limita en 2023 (Tasa respuesta: 4,06%)</t>
@@ -619,19 +619,19 @@
     <t>55,7%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>64,24%</t>
   </si>
   <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -640,139 +640,133 @@
     <t>44,3%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>35,76%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>73,29%</t>
   </si>
   <si>
     <t>84,9%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>26,71%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>73,16%</t>
   </si>
   <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>74,54%</t>
   </si>
   <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
   </si>
   <si>
     <t>25,46%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
   </si>
   <si>
     <t>51,09%</t>
   </si>
   <si>
-    <t>11,47%</t>
+    <t>11,1%</t>
   </si>
   <si>
     <t>91,02%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>83,92%</t>
   </si>
   <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>48,91%</t>
   </si>
   <si>
-    <t>88,53%</t>
+    <t>88,9%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>61,78%</t>
@@ -781,19 +775,19 @@
     <t>82,23%</t>
   </si>
   <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>79,67%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>38,22%</t>
@@ -802,67 +796,67 @@
     <t>17,77%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
   </si>
   <si>
     <t>20,33%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
   </si>
   <si>
     <t>78,54%</t>
   </si>
   <si>
-    <t>34,18%</t>
+    <t>34,8%</t>
   </si>
   <si>
     <t>74,2%</t>
   </si>
   <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>75,14%</t>
   </si>
   <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>21,46%</t>
   </si>
   <si>
-    <t>65,82%</t>
+    <t>65,2%</t>
   </si>
   <si>
     <t>25,8%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>24,86%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -871,19 +865,19 @@
     <t>63,06%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -892,121 +886,121 @@
     <t>36,94%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>38,07%</t>
+    <t>39,97%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>87,87%</t>
   </si>
   <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>61,93%</t>
+    <t>60,03%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB19EC5-7A21-4B44-AF44-3DF11F418D69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D28B79-4577-442A-B15F-BA65513A47B7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2913,7 +2907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22500F9-6AF4-49D4-AF28-CCF8797A27FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1EBDA7-F853-47AA-A00E-8C2E51FE969F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4432,7 +4426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D42184-71BD-4B65-B2DA-5A11E5AE35F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141FE527-051F-4148-BF27-F99BBA775730}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4732,7 +4726,7 @@
         <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4741,13 +4735,13 @@
         <v>16481</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4771,13 @@
         <v>1991</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4792,13 +4786,13 @@
         <v>2932</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4875,13 @@
         <v>12974</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4896,13 +4890,13 @@
         <v>13939</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4926,13 @@
         <v>4760</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -4947,13 +4941,13 @@
         <v>4760</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,10 +5015,10 @@
         <v>3830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -5036,13 +5030,13 @@
         <v>31588</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -5051,13 +5045,13 @@
         <v>35418</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5066,13 @@
         <v>3667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5087,13 +5081,13 @@
         <v>3117</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -5102,13 +5096,13 @@
         <v>6784</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,7 +5170,7 @@
         <v>1016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
@@ -5191,13 +5185,13 @@
         <v>9455</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -5206,13 +5200,13 @@
         <v>10471</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5221,7 @@
         <v>628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
@@ -5242,13 +5236,13 @@
         <v>2043</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5257,13 +5251,13 @@
         <v>2671</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,10 +5325,10 @@
         <v>3668</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -5346,13 +5340,13 @@
         <v>12635</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -5361,13 +5355,13 @@
         <v>16304</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5376,13 @@
         <v>1003</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5397,13 +5391,13 @@
         <v>4393</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -5412,13 +5406,13 @@
         <v>5395</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,7 +5483,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -5501,13 +5495,13 @@
         <v>23606</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -5516,13 +5510,13 @@
         <v>28505</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,7 +5537,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -5552,13 +5546,13 @@
         <v>13827</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -5567,13 +5561,13 @@
         <v>13827</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,10 +5635,10 @@
         <v>5362</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -5656,13 +5650,13 @@
         <v>26861</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -5671,13 +5665,13 @@
         <v>32223</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5686,13 @@
         <v>1397</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -5707,13 +5701,13 @@
         <v>3050</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5722,13 +5716,13 @@
         <v>4447</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5790,13 @@
         <v>22012</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>254</v>
@@ -5811,13 +5805,13 @@
         <v>138898</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>282</v>
@@ -5826,13 +5820,13 @@
         <v>160910</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5841,13 @@
         <v>7636</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>66</v>
@@ -5862,13 +5856,13 @@
         <v>37395</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -5877,13 +5871,13 @@
         <v>45031</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B29-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B29-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{243E3904-4805-42C4-8C23-B9F8BBF3F8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77339548-3181-4BC9-87D9-1C9E237BCD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3FEF6B2-C696-4DDF-A1A9-521D9E52E6F2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{719A0ACD-3A8C-44F8-9A59-5D5E2995042E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="319">
   <si>
     <t>Población cuya osteoporosis le limita en 2012 (Tasa respuesta: 2,03%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>85,97%</t>
   </si>
   <si>
-    <t>48,09%</t>
+    <t>50,09%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>46,35%</t>
+    <t>38,97%</t>
   </si>
   <si>
     <t>69,64%</t>
@@ -109,13 +109,13 @@
     <t>14,03%</t>
   </si>
   <si>
-    <t>51,91%</t>
+    <t>49,91%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>53,65%</t>
+    <t>61,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,13 +133,13 @@
     <t>90,15%</t>
   </si>
   <si>
-    <t>56,67%</t>
+    <t>56,6%</t>
   </si>
   <si>
     <t>82,13%</t>
   </si>
   <si>
-    <t>45,58%</t>
+    <t>47,38%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -148,13 +148,13 @@
     <t>9,85%</t>
   </si>
   <si>
-    <t>43,33%</t>
+    <t>43,4%</t>
   </si>
   <si>
     <t>17,87%</t>
   </si>
   <si>
-    <t>54,42%</t>
+    <t>52,62%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -163,19 +163,19 @@
     <t>78,8%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -202,7 +202,7 @@
     <t>87,03%</t>
   </si>
   <si>
-    <t>73,04%</t>
+    <t>70,73%</t>
   </si>
   <si>
     <t>96,74%</t>
@@ -211,10 +211,10 @@
     <t>87,47%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>12,97%</t>
@@ -223,16 +223,16 @@
     <t>3,26%</t>
   </si>
   <si>
-    <t>26,96%</t>
+    <t>29,27%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -241,52 +241,52 @@
     <t>86,04%</t>
   </si>
   <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>82,89%</t>
   </si>
   <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>80,31%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>83,52%</t>
@@ -295,28 +295,28 @@
     <t>74,92%</t>
   </si>
   <si>
-    <t>89,39%</t>
+    <t>89,33%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>19,69%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>10,61%</t>
+    <t>10,67%</t>
   </si>
   <si>
     <t>25,08%</t>
@@ -325,67 +325,67 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya osteoporosis le limita en 2015 (Tasa respuesta: 1,8%)</t>
+    <t>Población cuya osteoporosis le limita en 2016 (Tasa respuesta: 1,8%)</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>71,09%</t>
+    <t>66,38%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>67,2%</t>
+    <t>68,61%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>28,91%</t>
+    <t>33,62%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>32,8%</t>
+    <t>31,39%</t>
   </si>
   <si>
     <t>82,86%</t>
@@ -406,19 +406,19 @@
     <t>81,42%</t>
   </si>
   <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -427,19 +427,19 @@
     <t>18,58%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>47,67%</t>
@@ -451,163 +451,157 @@
     <t>67,27%</t>
   </si>
   <si>
-    <t>17,05%</t>
+    <t>32,25%</t>
   </si>
   <si>
     <t>76,52%</t>
   </si>
   <si>
-    <t>38,08%</t>
+    <t>37,46%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>82,95%</t>
+    <t>67,75%</t>
   </si>
   <si>
     <t>23,48%</t>
   </si>
   <si>
-    <t>61,92%</t>
+    <t>62,54%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>79,92%</t>
+    <t>79,9%</t>
   </si>
   <si>
     <t>57,81%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>54,81%</t>
   </si>
   <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
   </si>
   <si>
     <t>64,19%</t>
   </si>
   <si>
-    <t>20,08%</t>
+    <t>20,1%</t>
   </si>
   <si>
     <t>42,19%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
   </si>
   <si>
     <t>45,19%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
   </si>
   <si>
     <t>37,78%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>40,35%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>62,22%</t>
   </si>
   <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>59,65%</t>
   </si>
   <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
+    <t>76,0%</t>
   </si>
   <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
+    <t>24,0%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
   </si>
   <si>
     <t>Población cuya osteoporosis le limita en 2023 (Tasa respuesta: 4,06%)</t>
@@ -1412,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D28B79-4577-442A-B15F-BA65513A47B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C07297-6FAE-45BE-9443-07275994A9FC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2907,7 +2901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1EBDA7-F853-47AA-A00E-8C2E51FE969F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338CA893-04DB-4CD4-B3D1-EAC0A97101F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4277,10 +4271,10 @@
         <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -4289,13 +4283,13 @@
         <v>89976</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4304,13 @@
         <v>4032</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -4325,13 +4319,13 @@
         <v>39926</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -4340,13 +4334,13 @@
         <v>43959</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141FE527-051F-4148-BF27-F99BBA775730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0250C788-3FDF-4BF2-914D-2450058E1518}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4443,7 +4437,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4553,7 +4547,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -4565,13 +4559,13 @@
         <v>5299</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -4580,13 +4574,13 @@
         <v>7570</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4601,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4616,13 +4610,13 @@
         <v>4214</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4631,13 +4625,13 @@
         <v>4214</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,10 +4714,10 @@
         <v>16481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>55</v>
@@ -4735,13 +4729,13 @@
         <v>16481</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4765,13 @@
         <v>1991</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4786,13 +4780,13 @@
         <v>2932</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4869,13 @@
         <v>12974</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4890,13 +4884,13 @@
         <v>13939</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4920,13 @@
         <v>4760</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -4941,13 +4935,13 @@
         <v>4760</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,10 +5009,10 @@
         <v>3830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -5030,13 +5024,13 @@
         <v>31588</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -5045,13 +5039,13 @@
         <v>35418</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5060,13 @@
         <v>3667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5081,13 +5075,13 @@
         <v>3117</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -5096,13 +5090,13 @@
         <v>6784</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,7 +5164,7 @@
         <v>1016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
@@ -5185,13 +5179,13 @@
         <v>9455</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -5200,13 +5194,13 @@
         <v>10471</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,7 +5215,7 @@
         <v>628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
@@ -5236,13 +5230,13 @@
         <v>2043</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5251,13 +5245,13 @@
         <v>2671</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,10 +5319,10 @@
         <v>3668</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -5340,13 +5334,13 @@
         <v>12635</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -5355,13 +5349,13 @@
         <v>16304</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5370,13 @@
         <v>1003</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5391,13 +5385,13 @@
         <v>4393</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -5406,13 +5400,13 @@
         <v>5395</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,7 +5477,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -5495,13 +5489,13 @@
         <v>23606</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -5510,13 +5504,13 @@
         <v>28505</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,7 +5531,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -5546,13 +5540,13 @@
         <v>13827</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -5561,13 +5555,13 @@
         <v>13827</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,10 +5629,10 @@
         <v>5362</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -5650,13 +5644,13 @@
         <v>26861</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -5665,13 +5659,13 @@
         <v>32223</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5680,13 @@
         <v>1397</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -5701,13 +5695,13 @@
         <v>3050</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5716,13 +5710,13 @@
         <v>4447</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5784,13 @@
         <v>22012</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>254</v>
@@ -5805,13 +5799,13 @@
         <v>138898</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>282</v>
@@ -5820,13 +5814,13 @@
         <v>160910</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5835,13 @@
         <v>7636</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>66</v>
@@ -5856,13 +5850,13 @@
         <v>37395</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -5871,13 +5865,13 @@
         <v>45031</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
